--- a/init-data/hzero-admin/hzero_admin/hzero-service-route.xlsx
+++ b/init-data/hzero-admin/hzero_admin/hzero-service-route.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Desktop\data\hzero-admin\hzero_admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HZERO-OPEN-PROJECTS\HZERO-OPEN-HOSP\hzero-resource\init-data\hzero-admin\hzero_admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF079B0-F93E-4B9A-8F7D-D507BF5FAF67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2375,7 +2376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="34">
     <font>
       <sz val="12"/>
@@ -2798,6 +2799,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2813,11 +2815,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3157,7 +3158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3182,11 +3183,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3195,21 +3196,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3320,11 +3321,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3362,19 +3363,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3398,11 +3399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -3465,7 +3466,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F8" t="s">
@@ -3479,7 +3480,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="42" t="s">
         <v>102</v>
       </c>
       <c r="F9" t="s">
@@ -3493,7 +3494,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="42" t="s">
         <v>103</v>
       </c>
       <c r="F10" t="s">
@@ -3507,7 +3508,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="42" t="s">
         <v>104</v>
       </c>
       <c r="F11" t="s">
@@ -3521,7 +3522,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="42" t="s">
         <v>105</v>
       </c>
       <c r="F12" t="s">
@@ -3535,7 +3536,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="42" t="s">
         <v>106</v>
       </c>
       <c r="F13" t="s">
@@ -3549,7 +3550,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="42" t="s">
         <v>107</v>
       </c>
       <c r="F14" t="s">
@@ -3563,7 +3564,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="42" t="s">
         <v>108</v>
       </c>
       <c r="F15" t="s">
@@ -3577,7 +3578,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="42" t="s">
         <v>109</v>
       </c>
       <c r="F16" t="s">
@@ -3796,7 +3797,7 @@
         <v>96</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="L25" t="s">
         <v>80</v>
